--- a/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\fse\samples\DAMP\FSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E3919B-841A-4093-A939-4CEC1CF9402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D33EA34-D4E1-4B40-9158-FCF93735B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="3060" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43650" yWindow="2940" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="450">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2368,6 +2368,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2390,15 +2399,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2696,7 +2696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3846,10 +3846,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="P15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="U31" sqref="U31"/>
+      <selection pane="bottomRight" activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3891,14 +3891,14 @@
       <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="54"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3919,14 +3919,14 @@
       <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="61" t="s">
         <v>438</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="54"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3947,12 +3947,12 @@
       <c r="W3" s="10"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="58" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="61" t="s">
         <v>439</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3974,12 +3974,12 @@
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="54"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -4000,8 +4000,8 @@
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="1"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4341,7 +4341,9 @@
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="42"/>
-      <c r="J15" s="38"/>
+      <c r="J15" s="38" t="s">
+        <v>232</v>
+      </c>
       <c r="K15" s="38" t="s">
         <v>242</v>
       </c>
@@ -4639,7 +4641,9 @@
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
       <c r="I23" s="42"/>
-      <c r="J23" s="38"/>
+      <c r="J23" s="38" t="s">
+        <v>232</v>
+      </c>
       <c r="K23" s="38" t="s">
         <v>242</v>
       </c>
@@ -4941,10 +4945,10 @@
       <c r="E31" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="46">
         <v>45785</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="47" t="s">
         <v>447</v>
       </c>
       <c r="H31" s="37"/>
@@ -4962,7 +4966,7 @@
       <c r="N31" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O31" s="61" t="s">
+      <c r="O31" s="48" t="s">
         <v>448</v>
       </c>
       <c r="P31" s="38" t="s">
@@ -4974,7 +4978,7 @@
       <c r="R31" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S31" s="61" t="s">
+      <c r="S31" s="48" t="s">
         <v>449</v>
       </c>
       <c r="T31" s="38"/>
@@ -8197,7 +8201,9 @@
       <c r="J118" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K118" s="38"/>
+      <c r="K118" s="38" t="s">
+        <v>242</v>
+      </c>
       <c r="L118" s="38"/>
       <c r="M118" s="38"/>
       <c r="N118" s="38"/>
@@ -17422,6 +17428,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17679,15 +17694,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
@@ -17706,6 +17712,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17722,12 +17736,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/report-checklist.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\fse\samples\DAMP\FSE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D33EA34-D4E1-4B40-9158-FCF93735B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43650" yWindow="2940" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43650" yWindow="2940" windowWidth="28800" windowHeight="15345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -29,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1697,15 +1691,6 @@
     <t>DAMP di Giacomo Parrinello &amp; C. s.a.s.</t>
   </si>
   <si>
-    <t>subject_application_id: DAMP_-_Volare_FSE_-_LIS_-_RSA</t>
-  </si>
-  <si>
-    <t>subject_application_vendor: DAMP_sas</t>
-  </si>
-  <si>
-    <t>subject_application_version: Ver._02.00</t>
-  </si>
-  <si>
     <t>2025-05-16T11:30:31.506468+02:00</t>
   </si>
   <si>
@@ -1731,12 +1716,21 @@
   </si>
   <si>
     <t>Viene segnalato un errore di timeout della validazione e si richiede all'utente di riprovare in un momento successivo.</t>
+  </si>
+  <si>
+    <t>subject_application_id: DAMP - Volare FSE - LIS - RSA</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: DAMP sas</t>
+  </si>
+  <si>
+    <t>subject_application_version: 02.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -2402,7 +2396,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -2456,12 +2450,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -2479,18 +2473,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:A3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:A3">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ESITO"/>
+    <tableColumn id="1" name="ESITO"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="B1:B3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_2" displayName="Table_2" ref="B1:B3">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="APPLICABILITA'"/>
+    <tableColumn id="1" name="APPLICABILITA'"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2693,7 +2687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2772,7 +2766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -3841,15 +3835,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="P15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K118" sqref="K118"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3924,7 +3918,7 @@
       </c>
       <c r="B3" s="56"/>
       <c r="C3" s="61" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="D3" s="54"/>
       <c r="F3" s="7"/>
@@ -3950,7 +3944,7 @@
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
       <c r="C4" s="61" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="5"/>
@@ -3977,7 +3971,7 @@
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="61" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="D5" s="54"/>
       <c r="F5" s="7"/>
@@ -4949,7 +4943,7 @@
         <v>45785</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H31" s="37"/>
       <c r="I31" s="42"/>
@@ -4967,7 +4961,7 @@
         <v>64</v>
       </c>
       <c r="O31" s="48" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P31" s="38" t="s">
         <v>232</v>
@@ -4979,7 +4973,7 @@
         <v>64</v>
       </c>
       <c r="S31" s="48" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
@@ -10149,13 +10143,13 @@
         <v>45793</v>
       </c>
       <c r="G169" s="37" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J169" s="38" t="s">
         <v>64</v>
@@ -10198,13 +10192,13 @@
         <v>45793</v>
       </c>
       <c r="G170" s="37" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H170" s="37" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J170" s="38" t="s">
         <v>64</v>
@@ -15126,7 +15120,7 @@
     <row r="754" ht="14.25" customHeight="1"/>
     <row r="755" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A9:W192" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A9:W192">
     <filterColumn colId="2">
       <filters>
         <filter val="RSA"/>
@@ -15149,19 +15143,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>M10:N192 P10:R192 J10:J192</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>T10:T192</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
@@ -15174,7 +15168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15229,7 +15223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G960"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
@@ -16362,14 +16356,14 @@
     <row r="959" ht="15.75" customHeight="1"/>
     <row r="960" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:G10" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:G10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17416,27 +17410,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17694,32 +17667,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17736,4 +17705,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>